--- a/Utilities/Table Excel Files/TblSQL.xlsx
+++ b/Utilities/Table Excel Files/TblSQL.xlsx
@@ -365,12 +365,13 @@
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
           <t>_x000d_
-INSERT INTO Tbl_Customers(Customer_code, Credit_controller, Name, Address, Address2, Address3, Address4, Address5, Country, Update_date, OWN_company, OWN_bank_details1, OWN_bank_details2, OWN_bank_details3, OWN_bank_details4, NextAppointment, Email, DA TOGLIEREEEEEEEE TextEmail, ccEmail, StatusDate, ToSendStatement, Index, Note, ToSendRequestRelease, TotalInsurance, StatementForm, RetailOEM, ToReleaseOrder, Status, Timezone, Language, ContactNames, DSO, EmailCode, Area, LastStatementSent, FacturaNumberToBePrinted, PullTicketNumberToBePrinted, OriginalInvoiceAmountToBePrinted, HighestExposure, ReleaseNotes, MonthlyTargetInMainCurrency, Credit Limit, MainPhoneNumber) VALUES ('Strike Electrical Distributors Limited', 1, 'Strike Electrical Distributors Limited', '245 Green Lane Walsall West Midlands', '', '', '', '', '', 0, '', '', '', '', 0, '17/07/2024', 'tony@strikeelectrical.co.uk', 0, 0, 0, 0, 0, 0, 0, 0, 0, 'Retail', 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 50000, 0);</t>
+INSERT INTO Tbl_Users(ID, UserName, Name, [E-mailAddress]) VALUES (1, 'alberto', 'Alberto', 'alberto.paganini70@gmail.com');_x000d_
+INSERT INTO Tbl_Users(ID, UserName, Name, Querywithoutcreditcontroller, Onaccountsstillopen, Whopaidyesterdayroutine, Superuser, EmailSentToSender) VALUES (2, 'aaa', 'admin', False, False, False, False, False);</t>
         </is>
       </c>
     </row>
